--- a/tests/test-data/workflow-fair-slimmed/ex2_full_exceedance_probabilities.xlsx
+++ b/tests/test-data/workflow-fair-slimmed/ex2_full_exceedance_probabilities.xlsx
@@ -663,40 +663,40 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.170420964505887</v>
+        <v>1.170420964506113</v>
       </c>
       <c r="M2">
-        <v>1.216739970902177</v>
+        <v>1.216739970902331</v>
       </c>
       <c r="N2">
-        <v>1.281586579856982</v>
+        <v>1.281586579857037</v>
       </c>
       <c r="O2">
-        <v>1.3953298002673</v>
+        <v>1.395329800267301</v>
       </c>
       <c r="P2">
-        <v>1.532852706783371</v>
+        <v>1.532852706783353</v>
       </c>
       <c r="Q2">
-        <v>1.787225769775713</v>
+        <v>1.787225769775544</v>
       </c>
       <c r="R2">
-        <v>2.062259937021479</v>
+        <v>2.062259937021237</v>
       </c>
       <c r="S2">
-        <v>2.085758878263976</v>
+        <v>2.085758878263745</v>
       </c>
       <c r="T2">
-        <v>2.273750408203956</v>
+        <v>2.273750408203812</v>
       </c>
       <c r="U2">
-        <v>2.423382314071944</v>
+        <v>2.423382314071842</v>
       </c>
       <c r="V2">
-        <v>2.498369113268111</v>
+        <v>2.498369113267985</v>
       </c>
       <c r="W2">
-        <v>2.551931112693945</v>
+        <v>2.551931112693802</v>
       </c>
       <c r="X2">
         <v>2094</v>
@@ -770,40 +770,40 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.139082008636291</v>
+        <v>1.139082008636711</v>
       </c>
       <c r="M3">
-        <v>1.194037937609104</v>
+        <v>1.194037937609346</v>
       </c>
       <c r="N3">
-        <v>1.270976238171041</v>
+        <v>1.270976238171035</v>
       </c>
       <c r="O3">
-        <v>1.38147516020488</v>
+        <v>1.381475160204814</v>
       </c>
       <c r="P3">
-        <v>1.505515743645123</v>
+        <v>1.505515743645131</v>
       </c>
       <c r="Q3">
-        <v>1.675665514643962</v>
+        <v>1.675665514644596</v>
       </c>
       <c r="R3">
-        <v>1.886583786672162</v>
+        <v>1.886583786672958</v>
       </c>
       <c r="S3">
-        <v>1.911467788595424</v>
+        <v>1.911467788596154</v>
       </c>
       <c r="T3">
-        <v>2.110539803981524</v>
+        <v>2.110539803981719</v>
       </c>
       <c r="U3">
-        <v>2.236615085570415</v>
+        <v>2.236615085570317</v>
       </c>
       <c r="V3">
-        <v>2.240477386839769</v>
+        <v>2.240477386839763</v>
       </c>
       <c r="W3">
-        <v>2.243236173460736</v>
+        <v>2.243236173460796</v>
       </c>
       <c r="X3">
         <v>2052</v>
@@ -877,40 +877,40 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.128872797356098</v>
+        <v>1.128872797356235</v>
       </c>
       <c r="M4">
-        <v>1.183711659740498</v>
+        <v>1.183711659740629</v>
       </c>
       <c r="N4">
-        <v>1.26048606707866</v>
+        <v>1.260486067078781</v>
       </c>
       <c r="O4">
-        <v>1.371920059113585</v>
+        <v>1.371920059113669</v>
       </c>
       <c r="P4">
-        <v>1.49756913848044</v>
+        <v>1.497569138480472</v>
       </c>
       <c r="Q4">
-        <v>1.665088452721148</v>
+        <v>1.665088452721111</v>
       </c>
       <c r="R4">
-        <v>1.870455458190238</v>
+        <v>1.870455458190276</v>
       </c>
       <c r="S4">
-        <v>1.895087230802635</v>
+        <v>1.895087230802688</v>
       </c>
       <c r="T4">
-        <v>2.092141411701808</v>
+        <v>2.092141411701991</v>
       </c>
       <c r="U4">
-        <v>2.217127415360794</v>
+        <v>2.217127415360967</v>
       </c>
       <c r="V4">
-        <v>2.221390743420467</v>
+        <v>2.221390743420429</v>
       </c>
       <c r="W4">
-        <v>2.224435977748805</v>
+        <v>2.224435977748616</v>
       </c>
       <c r="X4">
         <v>2052</v>
@@ -984,40 +984,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.167856076290247</v>
+        <v>1.167856076290176</v>
       </c>
       <c r="M5">
-        <v>1.222583120494183</v>
+        <v>1.222583120494246</v>
       </c>
       <c r="N5">
-        <v>1.299200982379693</v>
+        <v>1.299200982379944</v>
       </c>
       <c r="O5">
-        <v>1.40858078389465</v>
+        <v>1.408580783894862</v>
       </c>
       <c r="P5">
-        <v>1.531050503882802</v>
+        <v>1.531050503882825</v>
       </c>
       <c r="Q5">
-        <v>1.714482098965009</v>
+        <v>1.714482098964635</v>
       </c>
       <c r="R5">
-        <v>1.938277743056776</v>
+        <v>1.938277743056302</v>
       </c>
       <c r="S5">
-        <v>1.962865252056642</v>
+        <v>1.962865252056189</v>
       </c>
       <c r="T5">
-        <v>2.159565324055568</v>
+        <v>2.159565324055287</v>
       </c>
       <c r="U5">
-        <v>2.284932734016503</v>
+        <v>2.284932734016308</v>
       </c>
       <c r="V5">
-        <v>2.290602418926915</v>
+        <v>2.290602418926673</v>
       </c>
       <c r="W5">
-        <v>2.294652193862925</v>
+        <v>2.294652193862647</v>
       </c>
       <c r="X5">
         <v>2060</v>
@@ -1091,40 +1091,40 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.12887279735517</v>
+        <v>1.128872797355503</v>
       </c>
       <c r="M6">
-        <v>1.183711659739591</v>
+        <v>1.183711659739954</v>
       </c>
       <c r="N6">
-        <v>1.260486067077781</v>
+        <v>1.260486067078185</v>
       </c>
       <c r="O6">
-        <v>1.371920059112903</v>
+        <v>1.371920059113243</v>
       </c>
       <c r="P6">
-        <v>1.497569138480055</v>
+        <v>1.497569138480261</v>
       </c>
       <c r="Q6">
-        <v>1.665088452720795</v>
+        <v>1.665088452720636</v>
       </c>
       <c r="R6">
-        <v>1.870455458189416</v>
+        <v>1.870455458189176</v>
       </c>
       <c r="S6">
-        <v>1.895087230801772</v>
+        <v>1.895087230801561</v>
       </c>
       <c r="T6">
-        <v>2.092141411700625</v>
+        <v>2.092141411700638</v>
       </c>
       <c r="U6">
-        <v>2.217127415359482</v>
+        <v>2.217127415359676</v>
       </c>
       <c r="V6">
-        <v>2.221390743419325</v>
+        <v>2.221390743419609</v>
       </c>
       <c r="W6">
-        <v>2.224435977747784</v>
+        <v>2.224435977748133</v>
       </c>
       <c r="X6">
         <v>2052</v>
@@ -1198,40 +1198,40 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.113196304184514</v>
+        <v>1.113196304184536</v>
       </c>
       <c r="M7">
-        <v>1.168700559689948</v>
+        <v>1.168700559689936</v>
       </c>
       <c r="N7">
-        <v>1.246406517397555</v>
+        <v>1.246406517397496</v>
       </c>
       <c r="O7">
-        <v>1.355332075718488</v>
+        <v>1.355332075718443</v>
       </c>
       <c r="P7">
-        <v>1.476328883746764</v>
+        <v>1.476328883746773</v>
       </c>
       <c r="Q7">
-        <v>1.651590161484157</v>
+        <v>1.651590161484285</v>
       </c>
       <c r="R7">
-        <v>1.874123389990467</v>
+        <v>1.874123389990649</v>
       </c>
       <c r="S7">
-        <v>1.89964741628941</v>
+        <v>1.899647416289589</v>
       </c>
       <c r="T7">
-        <v>2.103839626680954</v>
+        <v>2.10383962668111</v>
       </c>
       <c r="U7">
-        <v>2.233676438494018</v>
+        <v>2.23367643849399</v>
       </c>
       <c r="V7">
-        <v>2.238848692570167</v>
+        <v>2.23884869256974</v>
       </c>
       <c r="W7">
-        <v>2.242543159767417</v>
+        <v>2.242543159766705</v>
       </c>
       <c r="X7">
         <v>2052</v>
@@ -1305,40 +1305,40 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.187111915359093</v>
+        <v>1.187111915359217</v>
       </c>
       <c r="M8">
-        <v>1.2432483746599</v>
+        <v>1.243248374660006</v>
       </c>
       <c r="N8">
-        <v>1.32183941768103</v>
+        <v>1.321839417681112</v>
       </c>
       <c r="O8">
-        <v>1.447679098194868</v>
+        <v>1.447679098194919</v>
       </c>
       <c r="P8">
-        <v>1.595131586088233</v>
+        <v>1.595131586088251</v>
       </c>
       <c r="Q8">
-        <v>1.772793915228317</v>
+        <v>1.772793915228276</v>
       </c>
       <c r="R8">
-        <v>1.983466373741716</v>
+        <v>1.983466373741697</v>
       </c>
       <c r="S8">
-        <v>2.010471549788384</v>
+        <v>2.010471549788374</v>
       </c>
       <c r="T8">
-        <v>2.226512958161732</v>
+        <v>2.226512958161791</v>
       </c>
       <c r="U8">
-        <v>2.363067898297297</v>
+        <v>2.363067898297389</v>
       </c>
       <c r="V8">
-        <v>2.36663570473582</v>
+        <v>2.366635704735886</v>
       </c>
       <c r="W8">
-        <v>2.369184137906193</v>
+        <v>2.369184137906241</v>
       </c>
       <c r="X8">
         <v>2051</v>
@@ -1412,40 +1412,40 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.154726830354017</v>
+        <v>1.15472683035413</v>
       </c>
       <c r="M9">
-        <v>1.200847575862405</v>
+        <v>1.200847575862526</v>
       </c>
       <c r="N9">
-        <v>1.265416619574147</v>
+        <v>1.26541661957428</v>
       </c>
       <c r="O9">
-        <v>1.378292835478002</v>
+        <v>1.378292835478003</v>
       </c>
       <c r="P9">
-        <v>1.514618865236119</v>
+        <v>1.514618865235901</v>
       </c>
       <c r="Q9">
-        <v>1.765733246350172</v>
+        <v>1.765733246350017</v>
       </c>
       <c r="R9">
-        <v>2.035192676342333</v>
+        <v>2.035192676342468</v>
       </c>
       <c r="S9">
-        <v>2.058131063828409</v>
+        <v>2.058131063828551</v>
       </c>
       <c r="T9">
-        <v>2.241638163717021</v>
+        <v>2.241638163717212</v>
       </c>
       <c r="U9">
-        <v>2.388658391008852</v>
+        <v>2.38865839100892</v>
       </c>
       <c r="V9">
-        <v>2.464091067352233</v>
+        <v>2.464091067351942</v>
       </c>
       <c r="W9">
-        <v>2.517971550454648</v>
+        <v>2.5179715504541</v>
       </c>
       <c r="X9">
         <v>2094</v>
@@ -1519,40 +1519,40 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.154667795411786</v>
+        <v>1.154667795411647</v>
       </c>
       <c r="M10">
-        <v>1.20078956565342</v>
+        <v>1.200789565653363</v>
       </c>
       <c r="N10">
-        <v>1.265360043991706</v>
+        <v>1.265360043991765</v>
       </c>
       <c r="O10">
-        <v>1.378225294082892</v>
+        <v>1.378225294082927</v>
       </c>
       <c r="P10">
-        <v>1.51453279479682</v>
+        <v>1.51453279479674</v>
       </c>
       <c r="Q10">
-        <v>1.765623656402881</v>
+        <v>1.765623656403183</v>
       </c>
       <c r="R10">
-        <v>2.035081149527816</v>
+        <v>2.035081149528354</v>
       </c>
       <c r="S10">
-        <v>2.058020431968409</v>
+        <v>2.058020431968906</v>
       </c>
       <c r="T10">
-        <v>2.241534691493157</v>
+        <v>2.241534691493325</v>
       </c>
       <c r="U10">
-        <v>2.388557764178576</v>
+        <v>2.388557764178626</v>
       </c>
       <c r="V10">
-        <v>2.463986638637628</v>
+        <v>2.463986638637889</v>
       </c>
       <c r="W10">
-        <v>2.51786440610838</v>
+        <v>2.51786440610879</v>
       </c>
       <c r="X10">
         <v>2094</v>
@@ -1626,40 +1626,40 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.265786792423461</v>
+        <v>1.265786792423701</v>
       </c>
       <c r="M11">
-        <v>1.313111724656203</v>
+        <v>1.313111724656372</v>
       </c>
       <c r="N11">
-        <v>1.379366629782041</v>
+        <v>1.379366629782112</v>
       </c>
       <c r="O11">
-        <v>1.505915524230601</v>
+        <v>1.505915524230672</v>
       </c>
       <c r="P11">
-        <v>1.662961820404865</v>
+        <v>1.662961820405006</v>
       </c>
       <c r="Q11">
-        <v>1.932927021551754</v>
+        <v>1.93292702155162</v>
       </c>
       <c r="R11">
-        <v>2.217544214014913</v>
+        <v>2.21754421401484</v>
       </c>
       <c r="S11">
-        <v>2.242888797426372</v>
+        <v>2.242888797426364</v>
       </c>
       <c r="T11">
-        <v>2.445645464718039</v>
+        <v>2.445645464718559</v>
       </c>
       <c r="U11">
-        <v>2.603588249845958</v>
+        <v>2.603588249846545</v>
       </c>
       <c r="V11">
-        <v>2.676434608677421</v>
+        <v>2.676434608677393</v>
       </c>
       <c r="W11">
-        <v>2.728467722128465</v>
+        <v>2.728467722127998</v>
       </c>
       <c r="X11">
         <v>2094</v>
@@ -1733,40 +1733,40 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.163582093532866</v>
+        <v>1.163582093533006</v>
       </c>
       <c r="M12">
-        <v>1.209889932329552</v>
+        <v>1.209889932329621</v>
       </c>
       <c r="N12">
-        <v>1.274720906644913</v>
+        <v>1.274720906644884</v>
       </c>
       <c r="O12">
-        <v>1.389009540227458</v>
+        <v>1.38900954022745</v>
       </c>
       <c r="P12">
-        <v>1.527415828714712</v>
+        <v>1.527415828714805</v>
       </c>
       <c r="Q12">
-        <v>1.781203195978942</v>
+        <v>1.781203195979178</v>
       </c>
       <c r="R12">
-        <v>2.052016110445229</v>
+        <v>2.052016110445485</v>
       </c>
       <c r="S12">
-        <v>2.075037952049963</v>
+        <v>2.075037952050213</v>
       </c>
       <c r="T12">
-        <v>2.259212684887835</v>
+        <v>2.25921268488804</v>
       </c>
       <c r="U12">
-        <v>2.406864506226277</v>
+        <v>2.406864506226349</v>
       </c>
       <c r="V12">
-        <v>2.482797270627413</v>
+        <v>2.48279727062724</v>
       </c>
       <c r="W12">
-        <v>2.537034959485368</v>
+        <v>2.537034959485019</v>
       </c>
       <c r="X12">
         <v>2094</v>
@@ -1840,40 +1840,40 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.170414083217797</v>
+        <v>1.170414083217813</v>
       </c>
       <c r="M13">
-        <v>1.216733314554923</v>
+        <v>1.216733314554937</v>
       </c>
       <c r="N13">
-        <v>1.281580238426899</v>
+        <v>1.281580238426912</v>
       </c>
       <c r="O13">
-        <v>1.39532333380789</v>
+        <v>1.395323333807855</v>
       </c>
       <c r="P13">
-        <v>1.532845824333836</v>
+        <v>1.532845824333723</v>
       </c>
       <c r="Q13">
-        <v>1.787216596738292</v>
+        <v>1.787216596737837</v>
       </c>
       <c r="R13">
-        <v>2.062248630476731</v>
+        <v>2.06224863047633</v>
       </c>
       <c r="S13">
-        <v>2.085747537234095</v>
+        <v>2.085747537233749</v>
       </c>
       <c r="T13">
-        <v>2.273738791293007</v>
+        <v>2.273738791293101</v>
       </c>
       <c r="U13">
-        <v>2.42337043366063</v>
+        <v>2.423370433661061</v>
       </c>
       <c r="V13">
-        <v>2.498357020349171</v>
+        <v>2.498357020349746</v>
       </c>
       <c r="W13">
-        <v>2.551918867983843</v>
+        <v>2.551918867984522</v>
       </c>
       <c r="X13">
         <v>2094</v>

--- a/tests/test-data/workflow-fair-slimmed/ex2_full_exceedance_probabilities.xlsx
+++ b/tests/test-data/workflow-fair-slimmed/ex2_full_exceedance_probabilities.xlsx
@@ -663,40 +663,40 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.170420964506113</v>
+        <v>1.170420964505887</v>
       </c>
       <c r="M2">
-        <v>1.216739970902331</v>
+        <v>1.216739970902177</v>
       </c>
       <c r="N2">
-        <v>1.281586579857037</v>
+        <v>1.281586579856982</v>
       </c>
       <c r="O2">
-        <v>1.395329800267301</v>
+        <v>1.3953298002673</v>
       </c>
       <c r="P2">
-        <v>1.532852706783353</v>
+        <v>1.532852706783371</v>
       </c>
       <c r="Q2">
-        <v>1.787225769775544</v>
+        <v>1.787225769775713</v>
       </c>
       <c r="R2">
-        <v>2.062259937021237</v>
+        <v>2.062259937021479</v>
       </c>
       <c r="S2">
-        <v>2.085758878263745</v>
+        <v>2.085758878263976</v>
       </c>
       <c r="T2">
-        <v>2.273750408203812</v>
+        <v>2.273750408203956</v>
       </c>
       <c r="U2">
-        <v>2.423382314071842</v>
+        <v>2.423382314071944</v>
       </c>
       <c r="V2">
-        <v>2.498369113267985</v>
+        <v>2.498369113268111</v>
       </c>
       <c r="W2">
-        <v>2.551931112693802</v>
+        <v>2.551931112693945</v>
       </c>
       <c r="X2">
         <v>2094</v>
@@ -770,40 +770,40 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.139082008636711</v>
+        <v>1.139082008636291</v>
       </c>
       <c r="M3">
-        <v>1.194037937609346</v>
+        <v>1.194037937609104</v>
       </c>
       <c r="N3">
-        <v>1.270976238171035</v>
+        <v>1.270976238171041</v>
       </c>
       <c r="O3">
-        <v>1.381475160204814</v>
+        <v>1.38147516020488</v>
       </c>
       <c r="P3">
-        <v>1.505515743645131</v>
+        <v>1.505515743645123</v>
       </c>
       <c r="Q3">
-        <v>1.675665514644596</v>
+        <v>1.675665514643962</v>
       </c>
       <c r="R3">
-        <v>1.886583786672958</v>
+        <v>1.886583786672162</v>
       </c>
       <c r="S3">
-        <v>1.911467788596154</v>
+        <v>1.911467788595424</v>
       </c>
       <c r="T3">
-        <v>2.110539803981719</v>
+        <v>2.110539803981524</v>
       </c>
       <c r="U3">
-        <v>2.236615085570317</v>
+        <v>2.236615085570415</v>
       </c>
       <c r="V3">
-        <v>2.240477386839763</v>
+        <v>2.240477386839769</v>
       </c>
       <c r="W3">
-        <v>2.243236173460796</v>
+        <v>2.243236173460736</v>
       </c>
       <c r="X3">
         <v>2052</v>
@@ -877,40 +877,40 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.128872797356235</v>
+        <v>1.128872797356098</v>
       </c>
       <c r="M4">
-        <v>1.183711659740629</v>
+        <v>1.183711659740498</v>
       </c>
       <c r="N4">
-        <v>1.260486067078781</v>
+        <v>1.26048606707866</v>
       </c>
       <c r="O4">
-        <v>1.371920059113669</v>
+        <v>1.371920059113585</v>
       </c>
       <c r="P4">
-        <v>1.497569138480472</v>
+        <v>1.49756913848044</v>
       </c>
       <c r="Q4">
-        <v>1.665088452721111</v>
+        <v>1.665088452721148</v>
       </c>
       <c r="R4">
-        <v>1.870455458190276</v>
+        <v>1.870455458190238</v>
       </c>
       <c r="S4">
-        <v>1.895087230802688</v>
+        <v>1.895087230802635</v>
       </c>
       <c r="T4">
-        <v>2.092141411701991</v>
+        <v>2.092141411701808</v>
       </c>
       <c r="U4">
-        <v>2.217127415360967</v>
+        <v>2.217127415360794</v>
       </c>
       <c r="V4">
-        <v>2.221390743420429</v>
+        <v>2.221390743420467</v>
       </c>
       <c r="W4">
-        <v>2.224435977748616</v>
+        <v>2.224435977748805</v>
       </c>
       <c r="X4">
         <v>2052</v>
@@ -984,40 +984,40 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.167856076290176</v>
+        <v>1.167856076290247</v>
       </c>
       <c r="M5">
-        <v>1.222583120494246</v>
+        <v>1.222583120494183</v>
       </c>
       <c r="N5">
-        <v>1.299200982379944</v>
+        <v>1.299200982379693</v>
       </c>
       <c r="O5">
-        <v>1.408580783894862</v>
+        <v>1.40858078389465</v>
       </c>
       <c r="P5">
-        <v>1.531050503882825</v>
+        <v>1.531050503882802</v>
       </c>
       <c r="Q5">
-        <v>1.714482098964635</v>
+        <v>1.714482098965009</v>
       </c>
       <c r="R5">
-        <v>1.938277743056302</v>
+        <v>1.938277743056776</v>
       </c>
       <c r="S5">
-        <v>1.962865252056189</v>
+        <v>1.962865252056642</v>
       </c>
       <c r="T5">
-        <v>2.159565324055287</v>
+        <v>2.159565324055568</v>
       </c>
       <c r="U5">
-        <v>2.284932734016308</v>
+        <v>2.284932734016503</v>
       </c>
       <c r="V5">
-        <v>2.290602418926673</v>
+        <v>2.290602418926915</v>
       </c>
       <c r="W5">
-        <v>2.294652193862647</v>
+        <v>2.294652193862925</v>
       </c>
       <c r="X5">
         <v>2060</v>
@@ -1091,40 +1091,40 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.128872797355503</v>
+        <v>1.12887279735517</v>
       </c>
       <c r="M6">
-        <v>1.183711659739954</v>
+        <v>1.183711659739591</v>
       </c>
       <c r="N6">
-        <v>1.260486067078185</v>
+        <v>1.260486067077781</v>
       </c>
       <c r="O6">
-        <v>1.371920059113243</v>
+        <v>1.371920059112903</v>
       </c>
       <c r="P6">
-        <v>1.497569138480261</v>
+        <v>1.497569138480055</v>
       </c>
       <c r="Q6">
-        <v>1.665088452720636</v>
+        <v>1.665088452720795</v>
       </c>
       <c r="R6">
-        <v>1.870455458189176</v>
+        <v>1.870455458189416</v>
       </c>
       <c r="S6">
-        <v>1.895087230801561</v>
+        <v>1.895087230801772</v>
       </c>
       <c r="T6">
-        <v>2.092141411700638</v>
+        <v>2.092141411700625</v>
       </c>
       <c r="U6">
-        <v>2.217127415359676</v>
+        <v>2.217127415359482</v>
       </c>
       <c r="V6">
-        <v>2.221390743419609</v>
+        <v>2.221390743419325</v>
       </c>
       <c r="W6">
-        <v>2.224435977748133</v>
+        <v>2.224435977747784</v>
       </c>
       <c r="X6">
         <v>2052</v>
@@ -1198,40 +1198,40 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.113196304184536</v>
+        <v>1.113196304184514</v>
       </c>
       <c r="M7">
-        <v>1.168700559689936</v>
+        <v>1.168700559689948</v>
       </c>
       <c r="N7">
-        <v>1.246406517397496</v>
+        <v>1.246406517397555</v>
       </c>
       <c r="O7">
-        <v>1.355332075718443</v>
+        <v>1.355332075718488</v>
       </c>
       <c r="P7">
-        <v>1.476328883746773</v>
+        <v>1.476328883746764</v>
       </c>
       <c r="Q7">
-        <v>1.651590161484285</v>
+        <v>1.651590161484157</v>
       </c>
       <c r="R7">
-        <v>1.874123389990649</v>
+        <v>1.874123389990467</v>
       </c>
       <c r="S7">
-        <v>1.899647416289589</v>
+        <v>1.89964741628941</v>
       </c>
       <c r="T7">
-        <v>2.10383962668111</v>
+        <v>2.103839626680954</v>
       </c>
       <c r="U7">
-        <v>2.23367643849399</v>
+        <v>2.233676438494018</v>
       </c>
       <c r="V7">
-        <v>2.23884869256974</v>
+        <v>2.238848692570167</v>
       </c>
       <c r="W7">
-        <v>2.242543159766705</v>
+        <v>2.242543159767417</v>
       </c>
       <c r="X7">
         <v>2052</v>
@@ -1305,40 +1305,40 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.187111915359217</v>
+        <v>1.187111915359093</v>
       </c>
       <c r="M8">
-        <v>1.243248374660006</v>
+        <v>1.2432483746599</v>
       </c>
       <c r="N8">
-        <v>1.321839417681112</v>
+        <v>1.32183941768103</v>
       </c>
       <c r="O8">
-        <v>1.447679098194919</v>
+        <v>1.447679098194868</v>
       </c>
       <c r="P8">
-        <v>1.595131586088251</v>
+        <v>1.595131586088233</v>
       </c>
       <c r="Q8">
-        <v>1.772793915228276</v>
+        <v>1.772793915228317</v>
       </c>
       <c r="R8">
-        <v>1.983466373741697</v>
+        <v>1.983466373741716</v>
       </c>
       <c r="S8">
-        <v>2.010471549788374</v>
+        <v>2.010471549788384</v>
       </c>
       <c r="T8">
-        <v>2.226512958161791</v>
+        <v>2.226512958161732</v>
       </c>
       <c r="U8">
-        <v>2.363067898297389</v>
+        <v>2.363067898297297</v>
       </c>
       <c r="V8">
-        <v>2.366635704735886</v>
+        <v>2.36663570473582</v>
       </c>
       <c r="W8">
-        <v>2.369184137906241</v>
+        <v>2.369184137906193</v>
       </c>
       <c r="X8">
         <v>2051</v>
@@ -1412,40 +1412,40 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.15472683035413</v>
+        <v>1.154726830354017</v>
       </c>
       <c r="M9">
-        <v>1.200847575862526</v>
+        <v>1.200847575862405</v>
       </c>
       <c r="N9">
-        <v>1.26541661957428</v>
+        <v>1.265416619574147</v>
       </c>
       <c r="O9">
-        <v>1.378292835478003</v>
+        <v>1.378292835478002</v>
       </c>
       <c r="P9">
-        <v>1.514618865235901</v>
+        <v>1.514618865236119</v>
       </c>
       <c r="Q9">
-        <v>1.765733246350017</v>
+        <v>1.765733246350172</v>
       </c>
       <c r="R9">
-        <v>2.035192676342468</v>
+        <v>2.035192676342333</v>
       </c>
       <c r="S9">
-        <v>2.058131063828551</v>
+        <v>2.058131063828409</v>
       </c>
       <c r="T9">
-        <v>2.241638163717212</v>
+        <v>2.241638163717021</v>
       </c>
       <c r="U9">
-        <v>2.38865839100892</v>
+        <v>2.388658391008852</v>
       </c>
       <c r="V9">
-        <v>2.464091067351942</v>
+        <v>2.464091067352233</v>
       </c>
       <c r="W9">
-        <v>2.5179715504541</v>
+        <v>2.517971550454648</v>
       </c>
       <c r="X9">
         <v>2094</v>
@@ -1519,40 +1519,40 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.154667795411647</v>
+        <v>1.154667795411786</v>
       </c>
       <c r="M10">
-        <v>1.200789565653363</v>
+        <v>1.20078956565342</v>
       </c>
       <c r="N10">
-        <v>1.265360043991765</v>
+        <v>1.265360043991706</v>
       </c>
       <c r="O10">
-        <v>1.378225294082927</v>
+        <v>1.378225294082892</v>
       </c>
       <c r="P10">
-        <v>1.51453279479674</v>
+        <v>1.51453279479682</v>
       </c>
       <c r="Q10">
-        <v>1.765623656403183</v>
+        <v>1.765623656402881</v>
       </c>
       <c r="R10">
-        <v>2.035081149528354</v>
+        <v>2.035081149527816</v>
       </c>
       <c r="S10">
-        <v>2.058020431968906</v>
+        <v>2.058020431968409</v>
       </c>
       <c r="T10">
-        <v>2.241534691493325</v>
+        <v>2.241534691493157</v>
       </c>
       <c r="U10">
-        <v>2.388557764178626</v>
+        <v>2.388557764178576</v>
       </c>
       <c r="V10">
-        <v>2.463986638637889</v>
+        <v>2.463986638637628</v>
       </c>
       <c r="W10">
-        <v>2.51786440610879</v>
+        <v>2.51786440610838</v>
       </c>
       <c r="X10">
         <v>2094</v>
@@ -1626,40 +1626,40 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.265786792423701</v>
+        <v>1.265786792423461</v>
       </c>
       <c r="M11">
-        <v>1.313111724656372</v>
+        <v>1.313111724656203</v>
       </c>
       <c r="N11">
-        <v>1.379366629782112</v>
+        <v>1.379366629782041</v>
       </c>
       <c r="O11">
-        <v>1.505915524230672</v>
+        <v>1.505915524230601</v>
       </c>
       <c r="P11">
-        <v>1.662961820405006</v>
+        <v>1.662961820404865</v>
       </c>
       <c r="Q11">
-        <v>1.93292702155162</v>
+        <v>1.932927021551754</v>
       </c>
       <c r="R11">
-        <v>2.21754421401484</v>
+        <v>2.217544214014913</v>
       </c>
       <c r="S11">
-        <v>2.242888797426364</v>
+        <v>2.242888797426372</v>
       </c>
       <c r="T11">
-        <v>2.445645464718559</v>
+        <v>2.445645464718039</v>
       </c>
       <c r="U11">
-        <v>2.603588249846545</v>
+        <v>2.603588249845958</v>
       </c>
       <c r="V11">
-        <v>2.676434608677393</v>
+        <v>2.676434608677421</v>
       </c>
       <c r="W11">
-        <v>2.728467722127998</v>
+        <v>2.728467722128465</v>
       </c>
       <c r="X11">
         <v>2094</v>
@@ -1733,40 +1733,40 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.163582093533006</v>
+        <v>1.163582093532866</v>
       </c>
       <c r="M12">
-        <v>1.209889932329621</v>
+        <v>1.209889932329552</v>
       </c>
       <c r="N12">
-        <v>1.274720906644884</v>
+        <v>1.274720906644913</v>
       </c>
       <c r="O12">
-        <v>1.38900954022745</v>
+        <v>1.389009540227458</v>
       </c>
       <c r="P12">
-        <v>1.527415828714805</v>
+        <v>1.527415828714712</v>
       </c>
       <c r="Q12">
-        <v>1.781203195979178</v>
+        <v>1.781203195978942</v>
       </c>
       <c r="R12">
-        <v>2.052016110445485</v>
+        <v>2.052016110445229</v>
       </c>
       <c r="S12">
-        <v>2.075037952050213</v>
+        <v>2.075037952049963</v>
       </c>
       <c r="T12">
-        <v>2.25921268488804</v>
+        <v>2.259212684887835</v>
       </c>
       <c r="U12">
-        <v>2.406864506226349</v>
+        <v>2.406864506226277</v>
       </c>
       <c r="V12">
-        <v>2.48279727062724</v>
+        <v>2.482797270627413</v>
       </c>
       <c r="W12">
-        <v>2.537034959485019</v>
+        <v>2.537034959485368</v>
       </c>
       <c r="X12">
         <v>2094</v>
@@ -1840,40 +1840,40 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.170414083217813</v>
+        <v>1.170414083217797</v>
       </c>
       <c r="M13">
-        <v>1.216733314554937</v>
+        <v>1.216733314554923</v>
       </c>
       <c r="N13">
-        <v>1.281580238426912</v>
+        <v>1.281580238426899</v>
       </c>
       <c r="O13">
-        <v>1.395323333807855</v>
+        <v>1.39532333380789</v>
       </c>
       <c r="P13">
-        <v>1.532845824333723</v>
+        <v>1.532845824333836</v>
       </c>
       <c r="Q13">
-        <v>1.787216596737837</v>
+        <v>1.787216596738292</v>
       </c>
       <c r="R13">
-        <v>2.06224863047633</v>
+        <v>2.062248630476731</v>
       </c>
       <c r="S13">
-        <v>2.085747537233749</v>
+        <v>2.085747537234095</v>
       </c>
       <c r="T13">
-        <v>2.273738791293101</v>
+        <v>2.273738791293007</v>
       </c>
       <c r="U13">
-        <v>2.423370433661061</v>
+        <v>2.42337043366063</v>
       </c>
       <c r="V13">
-        <v>2.498357020349746</v>
+        <v>2.498357020349171</v>
       </c>
       <c r="W13">
-        <v>2.551918867984522</v>
+        <v>2.551918867983843</v>
       </c>
       <c r="X13">
         <v>2094</v>
